--- a/data/proc/scrap_lists/2010_2014/09203.xlsx
+++ b/data/proc/scrap_lists/2010_2014/09203.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>id_matched</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>estado</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>id_matched</t>
         </is>
       </c>
     </row>
@@ -496,10 +496,14 @@
           <t>0920320120013</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0920320120013</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -527,10 +531,14 @@
           <t>0920320120031</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0920320120031</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -558,10 +566,14 @@
           <t>0920320120037</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0920320120037</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -589,10 +601,14 @@
           <t>0920320120052</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0920320120052</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -620,10 +636,14 @@
           <t>0920320120094</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0920320120094</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -651,10 +671,14 @@
           <t>0920320120101</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0920320120101</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -682,10 +706,14 @@
           <t>0920320120106</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0920320120106</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -713,10 +741,14 @@
           <t>0920320120143</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0920320120143</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -744,10 +776,14 @@
           <t>0920320120144</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0920320120144</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -775,10 +811,14 @@
           <t>0920320120216</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0920320120216</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -806,10 +846,14 @@
           <t>0920320120246</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0920320120246</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -837,10 +881,14 @@
           <t>0920320120250</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0920320120250</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -868,10 +916,14 @@
           <t>0920320120271</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0920320120271</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -899,10 +951,14 @@
           <t>0920320120325</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0920320120325</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -930,10 +986,14 @@
           <t>0920320120352</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0920320120352</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -961,10 +1021,14 @@
           <t>0920320120390</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0920320120390</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -992,10 +1056,14 @@
           <t>0920320120410</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0920320120410</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1023,10 +1091,14 @@
           <t>0920320120452</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0920320120452</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1054,10 +1126,14 @@
           <t>0920320120494</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0920320120494</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1085,10 +1161,14 @@
           <t>0920320120509</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0920320120509</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1116,10 +1196,14 @@
           <t>0920320120512</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0920320120512</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1147,10 +1231,14 @@
           <t>0920320120515</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0920320120515</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1178,10 +1266,14 @@
           <t>0920320120520</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0920320120520</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1209,10 +1301,14 @@
           <t>0920320130017</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0920320130017</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1240,10 +1336,14 @@
           <t>0920320130063</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0920320130063</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1271,10 +1371,14 @@
           <t>0920320130065</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0920320130065</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1302,10 +1406,14 @@
           <t>0920320130068</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0920320130068</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1333,10 +1441,14 @@
           <t>0920320130086</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0920320130086</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1364,10 +1476,14 @@
           <t>0920320130146</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0920320130146</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1395,10 +1511,14 @@
           <t>0920320130196</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0920320130196</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1426,10 +1546,14 @@
           <t>0920320130365</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0920320130365</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1457,10 +1581,14 @@
           <t>0920320130377</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0920320130377</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1488,10 +1616,14 @@
           <t>0920320130398</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0920320130398</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1519,10 +1651,14 @@
           <t>0920320130447</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0920320130447</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1550,10 +1686,14 @@
           <t>0920320130475</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0920320130475</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1581,10 +1721,14 @@
           <t>0920320130548</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0920320130548</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1612,10 +1756,14 @@
           <t>0920320130567</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0920320130567</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1643,10 +1791,14 @@
           <t>0920320130611</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0920320130611</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1674,10 +1826,14 @@
           <t>0920320130619</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0920320130619</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1705,10 +1861,14 @@
           <t>0920320130705</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0920320130705</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1736,10 +1896,14 @@
           <t>0920320130714</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0920320130714</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1767,10 +1931,14 @@
           <t>0920320130763</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0920320130763</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1798,10 +1966,14 @@
           <t>0920320130776</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0920320130776</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1829,10 +2001,14 @@
           <t>0920320130792</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0920320130792</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1860,10 +2036,14 @@
           <t>0920320130803</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0920320130803</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1891,10 +2071,14 @@
           <t>0920320130807</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0920320130807</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1922,10 +2106,14 @@
           <t>0920320130812</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0920320130812</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1953,10 +2141,14 @@
           <t>0920320130823</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0920320130823</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1984,10 +2176,14 @@
           <t>0920320130842</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0920320130842</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2015,10 +2211,14 @@
           <t>0920320130853</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0920320130853</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2046,10 +2246,14 @@
           <t>0920320130857</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0920320130857</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2077,10 +2281,14 @@
           <t>0920320130877</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0920320130877</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2108,10 +2316,14 @@
           <t>0920320130894</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0920320130894</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2139,10 +2351,14 @@
           <t>0920320130926</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0920320130926</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2170,10 +2386,14 @@
           <t>0920320130955</t>
         </is>
       </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0920320130955</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2201,10 +2421,14 @@
           <t>0920320130960</t>
         </is>
       </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0920320130960</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2232,10 +2456,14 @@
           <t>0920320130968</t>
         </is>
       </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0920320130968</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2263,10 +2491,14 @@
           <t>0920320130985</t>
         </is>
       </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0920320130985</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2294,10 +2526,14 @@
           <t>0920320131008</t>
         </is>
       </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0920320131008</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2325,10 +2561,14 @@
           <t>0920320131020</t>
         </is>
       </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0920320131020</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2356,10 +2596,14 @@
           <t>0920320131031</t>
         </is>
       </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0920320131031</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2387,10 +2631,14 @@
           <t>0920320131045</t>
         </is>
       </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0920320131045</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2418,10 +2666,14 @@
           <t>0920320131067</t>
         </is>
       </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0920320131067</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2449,10 +2701,14 @@
           <t>0920320131101</t>
         </is>
       </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0920320131101</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2480,10 +2736,14 @@
           <t>0920320131130</t>
         </is>
       </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0920320131130</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2511,10 +2771,14 @@
           <t>0920320131141</t>
         </is>
       </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0920320131141</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2542,10 +2806,14 @@
           <t>0920320131175</t>
         </is>
       </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0920320131175</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2573,10 +2841,14 @@
           <t>0920320131183</t>
         </is>
       </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0920320131183</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2604,10 +2876,14 @@
           <t>0920320131191</t>
         </is>
       </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0920320131191</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2635,10 +2911,14 @@
           <t>0920320131197</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0920320131197</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2666,10 +2946,14 @@
           <t>0920320131212</t>
         </is>
       </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0920320131212</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2697,10 +2981,14 @@
           <t>0920320131242</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0920320131242</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2728,10 +3016,14 @@
           <t>0920320131312</t>
         </is>
       </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0920320131312</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2759,10 +3051,14 @@
           <t>0920320131318</t>
         </is>
       </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0920320131318</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2790,10 +3086,14 @@
           <t>0920320131331</t>
         </is>
       </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0920320131331</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2821,10 +3121,14 @@
           <t>0920320131333</t>
         </is>
       </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0920320131333</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2852,10 +3156,14 @@
           <t>0920320131386</t>
         </is>
       </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0920320131386</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2883,10 +3191,14 @@
           <t>0920320131388</t>
         </is>
       </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0920320131388</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2914,10 +3226,14 @@
           <t>0920320131392</t>
         </is>
       </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0920320131392</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2945,10 +3261,14 @@
           <t>0920320131393</t>
         </is>
       </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0920320131393</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2976,10 +3296,14 @@
           <t>0920320131400</t>
         </is>
       </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0920320131400</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3007,10 +3331,14 @@
           <t>0920320131404</t>
         </is>
       </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0920320131404</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3038,10 +3366,14 @@
           <t>0920320131443</t>
         </is>
       </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0920320131443</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3069,10 +3401,14 @@
           <t>0920320131471</t>
         </is>
       </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0920320131471</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3100,10 +3436,14 @@
           <t>0920320131480</t>
         </is>
       </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0920320131480</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3131,10 +3471,14 @@
           <t>0920320131566</t>
         </is>
       </c>
-      <c r="F87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0920320131566</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3162,10 +3506,14 @@
           <t>0920320131595</t>
         </is>
       </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0920320131595</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3193,10 +3541,14 @@
           <t>0920320131599</t>
         </is>
       </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0920320131599</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3224,10 +3576,14 @@
           <t>0920320131636</t>
         </is>
       </c>
-      <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0920320131636</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3255,10 +3611,14 @@
           <t>0920320131662</t>
         </is>
       </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0920320131662</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3286,10 +3646,14 @@
           <t>0920320131739</t>
         </is>
       </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0920320131739</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3317,10 +3681,14 @@
           <t>0920320131742</t>
         </is>
       </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0920320131742</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3348,10 +3716,14 @@
           <t>0920320131767</t>
         </is>
       </c>
-      <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0920320131767</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3379,10 +3751,14 @@
           <t>0920320131769</t>
         </is>
       </c>
-      <c r="F95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0920320131769</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3410,10 +3786,14 @@
           <t>0920320131773</t>
         </is>
       </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0920320131773</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3441,10 +3821,14 @@
           <t>0920320131777</t>
         </is>
       </c>
-      <c r="F97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0920320131777</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3472,10 +3856,14 @@
           <t>0920320131784</t>
         </is>
       </c>
-      <c r="F98" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0920320131784</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3503,10 +3891,14 @@
           <t>0920320131815</t>
         </is>
       </c>
-      <c r="F99" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0920320131815</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3534,10 +3926,14 @@
           <t>0920320131851</t>
         </is>
       </c>
-      <c r="F100" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0920320131851</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3565,10 +3961,14 @@
           <t>0920320131853</t>
         </is>
       </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0920320131853</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3596,10 +3996,14 @@
           <t>0920320131871</t>
         </is>
       </c>
-      <c r="F102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0920320131871</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3627,10 +4031,14 @@
           <t>0920320131899</t>
         </is>
       </c>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0920320131899</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3658,10 +4066,14 @@
           <t>0920320131905</t>
         </is>
       </c>
-      <c r="F104" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0920320131905</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3689,10 +4101,14 @@
           <t>0920320131928</t>
         </is>
       </c>
-      <c r="F105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0920320131928</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3720,10 +4136,14 @@
           <t>0920320131944</t>
         </is>
       </c>
-      <c r="F106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0920320131944</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3751,10 +4171,14 @@
           <t>0920320131975</t>
         </is>
       </c>
-      <c r="F107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0920320131975</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3782,10 +4206,14 @@
           <t>0920320131982</t>
         </is>
       </c>
-      <c r="F108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0920320131982</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3813,10 +4241,14 @@
           <t>0920320131994</t>
         </is>
       </c>
-      <c r="F109" t="n">
-        <v>0</v>
-      </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0920320131994</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3844,10 +4276,14 @@
           <t>0920320132000</t>
         </is>
       </c>
-      <c r="F110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0920320132000</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3875,10 +4311,14 @@
           <t>0920320132027</t>
         </is>
       </c>
-      <c r="F111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0920320132027</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3906,10 +4346,14 @@
           <t>0920320132038</t>
         </is>
       </c>
-      <c r="F112" t="n">
-        <v>0</v>
-      </c>
-      <c r="G112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0920320132038</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3937,10 +4381,14 @@
           <t>0920320132052</t>
         </is>
       </c>
-      <c r="F113" t="n">
-        <v>0</v>
-      </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0920320132052</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3968,10 +4416,14 @@
           <t>0920320132066</t>
         </is>
       </c>
-      <c r="F114" t="n">
-        <v>0</v>
-      </c>
-      <c r="G114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0920320132066</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3999,10 +4451,14 @@
           <t>0920320132125</t>
         </is>
       </c>
-      <c r="F115" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0920320132125</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4030,10 +4486,14 @@
           <t>0920320132130</t>
         </is>
       </c>
-      <c r="F116" t="n">
-        <v>0</v>
-      </c>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0920320132130</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4061,10 +4521,14 @@
           <t>0920320132131</t>
         </is>
       </c>
-      <c r="F117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0920320132131</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4092,10 +4556,14 @@
           <t>0920320132179</t>
         </is>
       </c>
-      <c r="F118" t="n">
-        <v>0</v>
-      </c>
-      <c r="G118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0920320132179</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4123,10 +4591,14 @@
           <t>0920320132199</t>
         </is>
       </c>
-      <c r="F119" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0920320132199</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4154,10 +4626,14 @@
           <t>0920320132220</t>
         </is>
       </c>
-      <c r="F120" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0920320132220</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4185,10 +4661,14 @@
           <t>0920320132239</t>
         </is>
       </c>
-      <c r="F121" t="n">
-        <v>0</v>
-      </c>
-      <c r="G121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0920320132239</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4216,10 +4696,14 @@
           <t>0920320132256</t>
         </is>
       </c>
-      <c r="F122" t="n">
-        <v>0</v>
-      </c>
-      <c r="G122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0920320132256</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4247,10 +4731,14 @@
           <t>0920320132274</t>
         </is>
       </c>
-      <c r="F123" t="n">
-        <v>0</v>
-      </c>
-      <c r="G123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0920320132274</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4278,10 +4766,14 @@
           <t>0920320132280</t>
         </is>
       </c>
-      <c r="F124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0920320132280</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4309,10 +4801,14 @@
           <t>0920320132282</t>
         </is>
       </c>
-      <c r="F125" t="n">
-        <v>0</v>
-      </c>
-      <c r="G125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0920320132282</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4340,10 +4836,14 @@
           <t>0920320132313</t>
         </is>
       </c>
-      <c r="F126" t="n">
-        <v>0</v>
-      </c>
-      <c r="G126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0920320132313</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4371,10 +4871,14 @@
           <t>0920320132324</t>
         </is>
       </c>
-      <c r="F127" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0920320132324</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4402,10 +4906,14 @@
           <t>0920320132340</t>
         </is>
       </c>
-      <c r="F128" t="n">
-        <v>0</v>
-      </c>
-      <c r="G128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0920320132340</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4433,10 +4941,14 @@
           <t>0920320132349</t>
         </is>
       </c>
-      <c r="F129" t="n">
-        <v>0</v>
-      </c>
-      <c r="G129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0920320132349</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4464,10 +4976,14 @@
           <t>0920320132359</t>
         </is>
       </c>
-      <c r="F130" t="n">
-        <v>0</v>
-      </c>
-      <c r="G130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0920320132359</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4495,10 +5011,14 @@
           <t>0920320132380</t>
         </is>
       </c>
-      <c r="F131" t="n">
-        <v>0</v>
-      </c>
-      <c r="G131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0920320132380</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4526,10 +5046,14 @@
           <t>0920320132388</t>
         </is>
       </c>
-      <c r="F132" t="n">
-        <v>0</v>
-      </c>
-      <c r="G132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0920320132388</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4557,10 +5081,14 @@
           <t>0920320132430</t>
         </is>
       </c>
-      <c r="F133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0920320132430</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4588,10 +5116,14 @@
           <t>0920320132445</t>
         </is>
       </c>
-      <c r="F134" t="n">
-        <v>0</v>
-      </c>
-      <c r="G134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0920320132445</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4619,10 +5151,14 @@
           <t>0920320140033</t>
         </is>
       </c>
-      <c r="F135" t="n">
-        <v>0</v>
-      </c>
-      <c r="G135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0920320140033</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4650,10 +5186,14 @@
           <t>0920320140040</t>
         </is>
       </c>
-      <c r="F136" t="n">
-        <v>0</v>
-      </c>
-      <c r="G136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0920320140040</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4681,10 +5221,14 @@
           <t>0920320140068</t>
         </is>
       </c>
-      <c r="F137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0920320140068</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4712,10 +5256,14 @@
           <t>0920320140135</t>
         </is>
       </c>
-      <c r="F138" t="n">
-        <v>0</v>
-      </c>
-      <c r="G138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0920320140135</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4743,10 +5291,14 @@
           <t>0920320140138</t>
         </is>
       </c>
-      <c r="F139" t="n">
-        <v>0</v>
-      </c>
-      <c r="G139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0920320140138</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4774,10 +5326,14 @@
           <t>0920320140204</t>
         </is>
       </c>
-      <c r="F140" t="n">
-        <v>0</v>
-      </c>
-      <c r="G140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0920320140204</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4805,10 +5361,14 @@
           <t>0920320140276</t>
         </is>
       </c>
-      <c r="F141" t="n">
-        <v>0</v>
-      </c>
-      <c r="G141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0920320140276</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4836,10 +5396,14 @@
           <t>0920320140292</t>
         </is>
       </c>
-      <c r="F142" t="n">
-        <v>0</v>
-      </c>
-      <c r="G142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0920320140292</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4867,10 +5431,14 @@
           <t>0920320140311</t>
         </is>
       </c>
-      <c r="F143" t="n">
-        <v>0</v>
-      </c>
-      <c r="G143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0920320140311</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4898,10 +5466,14 @@
           <t>0920320140328</t>
         </is>
       </c>
-      <c r="F144" t="n">
-        <v>0</v>
-      </c>
-      <c r="G144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0920320140328</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4929,10 +5501,14 @@
           <t>0920320140346</t>
         </is>
       </c>
-      <c r="F145" t="n">
-        <v>0</v>
-      </c>
-      <c r="G145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0920320140346</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4960,10 +5536,14 @@
           <t>0920320140376</t>
         </is>
       </c>
-      <c r="F146" t="n">
-        <v>0</v>
-      </c>
-      <c r="G146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0920320140376</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4991,10 +5571,14 @@
           <t>0920320140380</t>
         </is>
       </c>
-      <c r="F147" t="n">
-        <v>0</v>
-      </c>
-      <c r="G147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0920320140380</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5022,10 +5606,14 @@
           <t>0920320140422</t>
         </is>
       </c>
-      <c r="F148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0920320140422</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5053,10 +5641,14 @@
           <t>0920320140424</t>
         </is>
       </c>
-      <c r="F149" t="n">
-        <v>0</v>
-      </c>
-      <c r="G149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0920320140424</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5084,10 +5676,14 @@
           <t>0920320140478</t>
         </is>
       </c>
-      <c r="F150" t="n">
-        <v>0</v>
-      </c>
-      <c r="G150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0920320140478</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5115,10 +5711,14 @@
           <t>0920320140497</t>
         </is>
       </c>
-      <c r="F151" t="n">
-        <v>0</v>
-      </c>
-      <c r="G151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0920320140497</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5146,10 +5746,14 @@
           <t>0920320140509</t>
         </is>
       </c>
-      <c r="F152" t="n">
-        <v>0</v>
-      </c>
-      <c r="G152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0920320140509</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5177,10 +5781,14 @@
           <t>0920320140554</t>
         </is>
       </c>
-      <c r="F153" t="n">
-        <v>0</v>
-      </c>
-      <c r="G153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0920320140554</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5208,10 +5816,14 @@
           <t>0920320140562</t>
         </is>
       </c>
-      <c r="F154" t="n">
-        <v>0</v>
-      </c>
-      <c r="G154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0920320140562</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5239,10 +5851,14 @@
           <t>0920320140568</t>
         </is>
       </c>
-      <c r="F155" t="n">
-        <v>0</v>
-      </c>
-      <c r="G155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0920320140568</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5270,10 +5886,14 @@
           <t>0920320140580</t>
         </is>
       </c>
-      <c r="F156" t="n">
-        <v>0</v>
-      </c>
-      <c r="G156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0920320140580</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5301,10 +5921,14 @@
           <t>0920320140602</t>
         </is>
       </c>
-      <c r="F157" t="n">
-        <v>0</v>
-      </c>
-      <c r="G157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0920320140602</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5332,10 +5956,14 @@
           <t>0920320140626</t>
         </is>
       </c>
-      <c r="F158" t="n">
-        <v>0</v>
-      </c>
-      <c r="G158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0920320140626</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5363,10 +5991,14 @@
           <t>0920320140655</t>
         </is>
       </c>
-      <c r="F159" t="n">
-        <v>0</v>
-      </c>
-      <c r="G159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0920320140655</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5394,10 +6026,14 @@
           <t>0920320140680</t>
         </is>
       </c>
-      <c r="F160" t="n">
-        <v>0</v>
-      </c>
-      <c r="G160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0920320140680</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5425,10 +6061,14 @@
           <t>0920320140733</t>
         </is>
       </c>
-      <c r="F161" t="n">
-        <v>0</v>
-      </c>
-      <c r="G161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0920320140733</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5456,10 +6096,14 @@
           <t>0920320140756</t>
         </is>
       </c>
-      <c r="F162" t="n">
-        <v>0</v>
-      </c>
-      <c r="G162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0920320140756</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5487,10 +6131,14 @@
           <t>0920320140770</t>
         </is>
       </c>
-      <c r="F163" t="n">
-        <v>0</v>
-      </c>
-      <c r="G163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0920320140770</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5518,10 +6166,14 @@
           <t>0920320140796</t>
         </is>
       </c>
-      <c r="F164" t="n">
-        <v>0</v>
-      </c>
-      <c r="G164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0920320140796</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5549,10 +6201,14 @@
           <t>0920320140800</t>
         </is>
       </c>
-      <c r="F165" t="n">
-        <v>0</v>
-      </c>
-      <c r="G165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0920320140800</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5580,10 +6236,14 @@
           <t>0920320140804</t>
         </is>
       </c>
-      <c r="F166" t="n">
-        <v>0</v>
-      </c>
-      <c r="G166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0920320140804</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5611,10 +6271,14 @@
           <t>0920320140820</t>
         </is>
       </c>
-      <c r="F167" t="n">
-        <v>0</v>
-      </c>
-      <c r="G167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0920320140820</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5642,10 +6306,14 @@
           <t>0920320140826</t>
         </is>
       </c>
-      <c r="F168" t="n">
-        <v>0</v>
-      </c>
-      <c r="G168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0920320140826</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5673,10 +6341,14 @@
           <t>0920320140846</t>
         </is>
       </c>
-      <c r="F169" t="n">
-        <v>0</v>
-      </c>
-      <c r="G169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0920320140846</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5704,10 +6376,14 @@
           <t>0920320140940</t>
         </is>
       </c>
-      <c r="F170" t="n">
-        <v>0</v>
-      </c>
-      <c r="G170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0920320140940</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5735,10 +6411,14 @@
           <t>0920320140945</t>
         </is>
       </c>
-      <c r="F171" t="n">
-        <v>0</v>
-      </c>
-      <c r="G171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0920320140945</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5766,10 +6446,14 @@
           <t>0920320141124</t>
         </is>
       </c>
-      <c r="F172" t="n">
-        <v>0</v>
-      </c>
-      <c r="G172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0920320141124</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5797,10 +6481,14 @@
           <t>0920320141128</t>
         </is>
       </c>
-      <c r="F173" t="n">
-        <v>0</v>
-      </c>
-      <c r="G173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0920320141128</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5828,10 +6516,14 @@
           <t>0920320141143</t>
         </is>
       </c>
-      <c r="F174" t="n">
-        <v>0</v>
-      </c>
-      <c r="G174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0920320141143</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5859,10 +6551,14 @@
           <t>0920320141146</t>
         </is>
       </c>
-      <c r="F175" t="n">
-        <v>0</v>
-      </c>
-      <c r="G175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0920320141146</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5890,10 +6586,14 @@
           <t>0920320141149</t>
         </is>
       </c>
-      <c r="F176" t="n">
-        <v>0</v>
-      </c>
-      <c r="G176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0920320141149</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5921,10 +6621,14 @@
           <t>0920320141160</t>
         </is>
       </c>
-      <c r="F177" t="n">
-        <v>0</v>
-      </c>
-      <c r="G177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0920320141160</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5952,10 +6656,14 @@
           <t>0920320141166</t>
         </is>
       </c>
-      <c r="F178" t="n">
-        <v>0</v>
-      </c>
-      <c r="G178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0920320141166</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5983,10 +6691,14 @@
           <t>0920320141186</t>
         </is>
       </c>
-      <c r="F179" t="n">
-        <v>0</v>
-      </c>
-      <c r="G179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0920320141186</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6014,10 +6726,14 @@
           <t>0920320141211</t>
         </is>
       </c>
-      <c r="F180" t="n">
-        <v>0</v>
-      </c>
-      <c r="G180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0920320141211</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6045,10 +6761,14 @@
           <t>0920320141243</t>
         </is>
       </c>
-      <c r="F181" t="n">
-        <v>0</v>
-      </c>
-      <c r="G181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0920320141243</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6076,10 +6796,14 @@
           <t>0920320141262</t>
         </is>
       </c>
-      <c r="F182" t="n">
-        <v>0</v>
-      </c>
-      <c r="G182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0920320141262</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6107,10 +6831,14 @@
           <t>0920320141282</t>
         </is>
       </c>
-      <c r="F183" t="n">
-        <v>0</v>
-      </c>
-      <c r="G183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0920320141282</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6138,10 +6866,14 @@
           <t>0920320141285</t>
         </is>
       </c>
-      <c r="F184" t="n">
-        <v>0</v>
-      </c>
-      <c r="G184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0920320141285</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6169,10 +6901,14 @@
           <t>0920320141313</t>
         </is>
       </c>
-      <c r="F185" t="n">
-        <v>0</v>
-      </c>
-      <c r="G185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0920320141313</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6200,10 +6936,14 @@
           <t>0920320141320</t>
         </is>
       </c>
-      <c r="F186" t="n">
-        <v>0</v>
-      </c>
-      <c r="G186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0920320141320</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6231,10 +6971,14 @@
           <t>0920320141324</t>
         </is>
       </c>
-      <c r="F187" t="n">
-        <v>0</v>
-      </c>
-      <c r="G187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0920320141324</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6262,10 +7006,14 @@
           <t>0920320141384</t>
         </is>
       </c>
-      <c r="F188" t="n">
-        <v>0</v>
-      </c>
-      <c r="G188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0920320141384</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6293,10 +7041,14 @@
           <t>0920320141450</t>
         </is>
       </c>
-      <c r="F189" t="n">
-        <v>0</v>
-      </c>
-      <c r="G189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0920320141450</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6324,10 +7076,14 @@
           <t>0920320141504</t>
         </is>
       </c>
-      <c r="F190" t="n">
-        <v>0</v>
-      </c>
-      <c r="G190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0920320141504</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6355,10 +7111,14 @@
           <t>0920320141525</t>
         </is>
       </c>
-      <c r="F191" t="n">
-        <v>0</v>
-      </c>
-      <c r="G191" t="inlineStr"/>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0920320141525</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6386,10 +7146,14 @@
           <t>0920320141536</t>
         </is>
       </c>
-      <c r="F192" t="n">
-        <v>0</v>
-      </c>
-      <c r="G192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0920320141536</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6417,10 +7181,14 @@
           <t>0920320141564</t>
         </is>
       </c>
-      <c r="F193" t="n">
-        <v>0</v>
-      </c>
-      <c r="G193" t="inlineStr"/>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0920320141564</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6448,10 +7216,14 @@
           <t>0920320141584</t>
         </is>
       </c>
-      <c r="F194" t="n">
-        <v>0</v>
-      </c>
-      <c r="G194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0920320141584</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6479,10 +7251,14 @@
           <t>0920320141595</t>
         </is>
       </c>
-      <c r="F195" t="n">
-        <v>0</v>
-      </c>
-      <c r="G195" t="inlineStr"/>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>0920320141595</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6510,10 +7286,14 @@
           <t>0920320141599</t>
         </is>
       </c>
-      <c r="F196" t="n">
-        <v>0</v>
-      </c>
-      <c r="G196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>0920320141599</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6541,10 +7321,14 @@
           <t>0920320141602</t>
         </is>
       </c>
-      <c r="F197" t="n">
-        <v>0</v>
-      </c>
-      <c r="G197" t="inlineStr"/>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0920320141602</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6572,10 +7356,14 @@
           <t>0920320141636</t>
         </is>
       </c>
-      <c r="F198" t="n">
-        <v>0</v>
-      </c>
-      <c r="G198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0920320141636</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6603,10 +7391,14 @@
           <t>0920320141681</t>
         </is>
       </c>
-      <c r="F199" t="n">
-        <v>0</v>
-      </c>
-      <c r="G199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0920320141681</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6634,10 +7426,14 @@
           <t>0920320141695</t>
         </is>
       </c>
-      <c r="F200" t="n">
-        <v>0</v>
-      </c>
-      <c r="G200" t="inlineStr"/>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0920320141695</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6665,10 +7461,14 @@
           <t>0920320141707</t>
         </is>
       </c>
-      <c r="F201" t="n">
-        <v>0</v>
-      </c>
-      <c r="G201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0920320141707</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6696,10 +7496,14 @@
           <t>0920320141779</t>
         </is>
       </c>
-      <c r="F202" t="n">
-        <v>0</v>
-      </c>
-      <c r="G202" t="inlineStr"/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0920320141779</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6727,10 +7531,14 @@
           <t>0920320141803</t>
         </is>
       </c>
-      <c r="F203" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0920320141803</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
